--- a/Mussel_Cancer/R_calc_Magadn_2023/Data/Cancer_Magadan_2021-2023.xlsx
+++ b/Mussel_Cancer/R_calc_Magadn_2023/Data/Cancer_Magadan_2021-2023.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="450">
   <si>
     <t>Sample ID</t>
   </si>
@@ -2022,6 +2022,9 @@
   </si>
   <si>
     <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
   <si>
     <t>MCHK</t>
@@ -10775,8 +10778,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10969,7 +10972,7 @@
         <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="D11" s="1">
         <v>32</v>
@@ -10986,7 +10989,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="D12" s="1">
         <v>32</v>
@@ -11003,7 +11006,7 @@
         <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="D13" s="4">
         <v>32</v>
@@ -11230,7 +11233,8 @@
         <v>32</v>
       </c>
       <c r="E26" s="3">
-        <v>4</v>
+        <f>4+2</f>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11599,7 +11603,7 @@
         <v>124</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D48" s="6">
         <v>64</v>
@@ -11613,10 +11617,10 @@
         <v>2021</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D49" s="6">
         <v>64</v>
@@ -11630,10 +11634,10 @@
         <v>2021</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D50" s="6">
         <v>64</v>
@@ -11698,10 +11702,10 @@
         <v>2021</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D54" s="6">
         <v>32</v>
@@ -11766,10 +11770,10 @@
         <v>2021</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D58" s="6">
         <v>164</v>

--- a/Mussel_Cancer/R_calc_Magadn_2023/Data/Cancer_Magadan_2021-2023.xlsx
+++ b/Mussel_Cancer/R_calc_Magadn_2023/Data/Cancer_Magadan_2021-2023.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144" activeTab="3"/>
+    <workbookView windowWidth="22188" windowHeight="9144" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SEA OF OKHOTSK" sheetId="1" r:id="rId1"/>
     <sheet name="KAMCHATKA" sheetId="2" r:id="rId2"/>
     <sheet name="Magadan_2023" sheetId="3" r:id="rId3"/>
     <sheet name="Magadan_cancer_prevalence" sheetId="4" r:id="rId4"/>
+    <sheet name="BTN 2020-2023" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Magadan_cancer_prevalence!$B$1:$E$58</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="482">
   <si>
     <t>Sample ID</t>
   </si>
@@ -2024,6 +2025,9 @@
     <t>Sample_ID</t>
   </si>
   <si>
+    <t>BTN</t>
+  </si>
+  <si>
     <t>ON</t>
   </si>
   <si>
@@ -2040,6 +2044,99 @@
   </si>
   <si>
     <t>XP</t>
+  </si>
+  <si>
+    <t>Site_Year</t>
+  </si>
+  <si>
+    <t>BTN1_BTN2.1</t>
+  </si>
+  <si>
+    <t>BTN2.SouthAm</t>
+  </si>
+  <si>
+    <t>DUK_2021</t>
+  </si>
+  <si>
+    <t>GER_2021</t>
+  </si>
+  <si>
+    <t>KAR_2023</t>
+  </si>
+  <si>
+    <t>KHOL_2021</t>
+  </si>
+  <si>
+    <t>KHOL_2023</t>
+  </si>
+  <si>
+    <t>KOR_2021</t>
+  </si>
+  <si>
+    <t>M1_2020</t>
+  </si>
+  <si>
+    <t>Mag1_2020</t>
+  </si>
+  <si>
+    <t>Mag2_2020</t>
+  </si>
+  <si>
+    <t>MAM_2023</t>
+  </si>
+  <si>
+    <t>MAR_II_2021</t>
+  </si>
+  <si>
+    <t>MAR_II_2023</t>
+  </si>
+  <si>
+    <t>MCHK_2021</t>
+  </si>
+  <si>
+    <t>NEDORAZUM_2023</t>
+  </si>
+  <si>
+    <t>NUK_I_2021</t>
+  </si>
+  <si>
+    <t>NUK_I_2023</t>
+  </si>
+  <si>
+    <t>NUK_II_2021</t>
+  </si>
+  <si>
+    <t>NUK_III_2021</t>
+  </si>
+  <si>
+    <t>OLA_2020</t>
+  </si>
+  <si>
+    <t>OLA_2023</t>
+  </si>
+  <si>
+    <t>PORT_2023</t>
+  </si>
+  <si>
+    <t>SVET_2023</t>
+  </si>
+  <si>
+    <t>TIKH_2023</t>
+  </si>
+  <si>
+    <t>UM_2021</t>
+  </si>
+  <si>
+    <t>UM_2023</t>
+  </si>
+  <si>
+    <t>VES_2021</t>
+  </si>
+  <si>
+    <t>XP_2021</t>
+  </si>
+  <si>
+    <t>ZHEM_2023</t>
   </si>
 </sst>
 </file>
@@ -10778,8 +10875,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10803,7 +10900,7 @@
         <v>421</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -10876,7 +10973,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10893,7 +10990,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10910,7 +11007,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10972,7 +11069,7 @@
         <v>250</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D11" s="1">
         <v>32</v>
@@ -10989,7 +11086,7 @@
         <v>252</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D12" s="1">
         <v>32</v>
@@ -11006,7 +11103,7 @@
         <v>259</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D13" s="4">
         <v>32</v>
@@ -11233,8 +11330,7 @@
         <v>32</v>
       </c>
       <c r="E26" s="3">
-        <f>4+2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -11268,7 +11364,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -11302,7 +11398,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -11336,7 +11432,7 @@
         <v>32</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -11370,7 +11466,7 @@
         <v>32</v>
       </c>
       <c r="E34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -11421,7 +11517,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -11455,7 +11551,7 @@
         <v>32</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -11472,7 +11568,7 @@
         <v>32</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -11522,8 +11618,8 @@
       <c r="D43">
         <v>53</v>
       </c>
-      <c r="E43" s="3">
-        <v>5</v>
+      <c r="E43" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -11540,8 +11636,8 @@
         <f>107-54</f>
         <v>53</v>
       </c>
-      <c r="E44" s="3">
-        <v>6</v>
+      <c r="E44" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -11603,7 +11699,7 @@
         <v>124</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D48" s="6">
         <v>64</v>
@@ -11617,10 +11713,10 @@
         <v>2021</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D49" s="6">
         <v>64</v>
@@ -11634,10 +11730,10 @@
         <v>2021</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D50" s="6">
         <v>64</v>
@@ -11677,7 +11773,7 @@
         <v>163</v>
       </c>
       <c r="E52" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -11702,16 +11798,16 @@
         <v>2021</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D54" s="6">
         <v>32</v>
       </c>
       <c r="E54" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -11745,7 +11841,7 @@
         <v>230</v>
       </c>
       <c r="E56" s="6">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -11770,10 +11866,10 @@
         <v>2021</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D58" s="6">
         <v>164</v>
@@ -11813,4 +11909,608 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="18.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.11111111111111" customWidth="1"/>
+    <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
+    <col min="4" max="5" width="7.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="14.5555555555556" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>456</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>466</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>471</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>476</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>480</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>481</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>